--- a/data-raw/Manuscript_Generic_Example.xlsx
+++ b/data-raw/Manuscript_Generic_Example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E625667\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e618345\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9B297D-04A6-4579-8D28-06C20CA4CFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5B20D8-EF1C-4929-8CE3-46F9CF95FA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Example Effects Table" sheetId="1" r:id="rId1"/>
@@ -596,9 +596,6 @@
     <t>Reoccurring AE</t>
   </si>
   <si>
-    <t>Drug_A</t>
-  </si>
-  <si>
     <t>% Achieving Remission</t>
   </si>
   <si>
@@ -611,15 +608,6 @@
     <t>HR Quality of Life</t>
   </si>
   <si>
-    <t>Drug_B</t>
-  </si>
-  <si>
-    <t>Drug_C</t>
-  </si>
-  <si>
-    <t>Drug_D</t>
-  </si>
-  <si>
     <t>Comorbidities</t>
   </si>
   <si>
@@ -651,6 +639,18 @@
   </si>
   <si>
     <t>Severity</t>
+  </si>
+  <si>
+    <t>Drug A</t>
+  </si>
+  <si>
+    <t>Drug B</t>
+  </si>
+  <si>
+    <t>Drug C</t>
+  </si>
+  <si>
+    <t>Drug D</t>
   </si>
 </sst>
 </file>
@@ -1171,29 +1171,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY25"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V28" sqref="V28"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="26.453125" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
-    <col min="15" max="15" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.26953125" customWidth="1"/>
-    <col min="24" max="24" width="9.1796875" customWidth="1"/>
-    <col min="29" max="29" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>49</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>175</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>51</v>
@@ -1374,7 +1374,7 @@
         <v>54</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K2" s="23">
         <v>300</v>
@@ -1424,7 +1424,7 @@
       <c r="AI2" s="33"/>
       <c r="AJ2" s="33"/>
     </row>
-    <row r="3" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>49</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>54</v>
       </c>
       <c r="J3" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K3" s="33"/>
       <c r="L3" s="23">
@@ -1496,7 +1496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>49</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>57</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>58</v>
@@ -1522,7 +1522,7 @@
         <v>54</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K4" s="33"/>
       <c r="L4" s="23">
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>61</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>180</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>51</v>
@@ -1594,7 +1594,7 @@
         <v>54</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K5" s="23">
         <v>300</v>
@@ -1657,7 +1657,7 @@
       <c r="AI5" s="33"/>
       <c r="AJ5" s="33"/>
     </row>
-    <row r="6" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>61</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E6" s="23" t="s">
         <v>51</v>
@@ -1686,7 +1686,7 @@
         <v>54</v>
       </c>
       <c r="J6" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K6" s="23">
         <v>15</v>
@@ -1746,7 +1746,7 @@
       <c r="AI6" s="33"/>
       <c r="AJ6" s="33"/>
     </row>
-    <row r="7" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:51" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>61</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>179</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>51</v>
@@ -1775,7 +1775,7 @@
         <v>54</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="K7" s="23">
         <v>4</v>
@@ -1836,7 +1836,7 @@
       <c r="AI7" s="33"/>
       <c r="AJ7" s="33"/>
     </row>
-    <row r="8" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>49</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>175</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="30" t="s">
         <v>51</v>
@@ -1862,7 +1862,7 @@
         <v>54</v>
       </c>
       <c r="J8" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K8" s="30">
         <v>175</v>
@@ -1912,7 +1912,7 @@
       <c r="AI8" s="33"/>
       <c r="AJ8" s="33"/>
     </row>
-    <row r="9" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>49</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>54</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="L9" s="30">
         <v>1000</v>
@@ -1981,7 +1981,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>49</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>58</v>
@@ -2007,7 +2007,7 @@
         <v>54</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K10" s="33"/>
       <c r="L10" s="30">
@@ -2052,7 +2052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>61</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>180</v>
       </c>
       <c r="D11" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>51</v>
@@ -2081,7 +2081,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K11" s="30">
         <v>300</v>
@@ -2144,7 +2144,7 @@
       <c r="AI11" s="33"/>
       <c r="AJ11" s="33"/>
     </row>
-    <row r="12" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>61</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>177</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>51</v>
@@ -2173,7 +2173,7 @@
         <v>54</v>
       </c>
       <c r="J12" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K12" s="30">
         <v>10</v>
@@ -2234,7 +2234,7 @@
       <c r="AI12" s="33"/>
       <c r="AJ12" s="33"/>
     </row>
-    <row r="13" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:51" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>61</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>179</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>51</v>
@@ -2263,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="J13" s="30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K13" s="30">
         <v>2</v>
@@ -2324,7 +2324,7 @@
       <c r="AI13" s="33"/>
       <c r="AJ13" s="33"/>
     </row>
-    <row r="14" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>49</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>175</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="31" t="s">
         <v>51</v>
@@ -2350,7 +2350,7 @@
         <v>54</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K14" s="31">
         <v>200</v>
@@ -2400,7 +2400,7 @@
       <c r="AI14" s="33"/>
       <c r="AJ14" s="33"/>
     </row>
-    <row r="15" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>49</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>54</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L15" s="31">
         <v>1000</v>
@@ -2469,7 +2469,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:51" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>57</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>58</v>
@@ -2495,7 +2495,7 @@
         <v>54</v>
       </c>
       <c r="J16" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K16" s="33"/>
       <c r="L16" s="31">
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>61</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>180</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>51</v>
@@ -2569,7 +2569,7 @@
         <v>54</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K17" s="31">
         <v>300</v>
@@ -2632,7 +2632,7 @@
       <c r="AI17" s="33"/>
       <c r="AJ17" s="33"/>
     </row>
-    <row r="18" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>61</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>177</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E18" s="31" t="s">
         <v>51</v>
@@ -2661,7 +2661,7 @@
         <v>54</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K18" s="31">
         <v>20</v>
@@ -2722,7 +2722,7 @@
       <c r="AI18" s="33"/>
       <c r="AJ18" s="33"/>
     </row>
-    <row r="19" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>61</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>179</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="31" t="s">
         <v>51</v>
@@ -2751,7 +2751,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K19" s="31">
         <v>6</v>
@@ -2812,7 +2812,7 @@
       <c r="AI19" s="33"/>
       <c r="AJ19" s="33"/>
     </row>
-    <row r="20" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>49</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>175</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>51</v>
@@ -2838,7 +2838,7 @@
         <v>54</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K20" s="32">
         <v>100</v>
@@ -2888,7 +2888,7 @@
       <c r="AI20" s="33"/>
       <c r="AJ20" s="33"/>
     </row>
-    <row r="21" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>49</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>54</v>
       </c>
       <c r="J21" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="L21" s="32">
         <v>1000</v>
@@ -2967,7 +2967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>49</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>58</v>
@@ -2993,7 +2993,7 @@
         <v>54</v>
       </c>
       <c r="J22" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K22" s="33"/>
       <c r="L22" s="32">
@@ -3039,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>61</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="32" t="s">
         <v>51</v>
@@ -3068,7 +3068,7 @@
         <v>54</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K23" s="32">
         <v>80</v>
@@ -3132,7 +3132,7 @@
       <c r="AI23" s="33"/>
       <c r="AJ23" s="33"/>
     </row>
-    <row r="24" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>61</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>177</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E24" s="32" t="s">
         <v>51</v>
@@ -3161,7 +3161,7 @@
         <v>54</v>
       </c>
       <c r="J24" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K24" s="32">
         <v>12</v>
@@ -3222,7 +3222,7 @@
       <c r="AI24" s="33"/>
       <c r="AJ24" s="33"/>
     </row>
-    <row r="25" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>61</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>179</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>51</v>
@@ -3251,7 +3251,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="32" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="K25" s="32">
         <v>0</v>
@@ -3323,188 +3323,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4A282F-FA68-4BC3-9814-08A63A8C35E3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>192</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>196</v>
       </c>
       <c r="C2" s="21">
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="21">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C4" s="21">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C5" s="21">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C6" s="21">
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C7" s="21">
         <v>0.15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C8" s="21">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>193</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>197</v>
       </c>
       <c r="C9" s="21">
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C10" s="21">
         <v>0.4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C11" s="21">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C12" s="21">
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>194</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>198</v>
       </c>
       <c r="C13" s="21">
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C14" s="21">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C15" s="21">
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C16" s="21">
         <v>0.15</v>
@@ -3523,18 +3523,18 @@
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.54296875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="35.26953125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>170</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3652,7 +3652,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -3751,7 +3751,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3779,7 +3779,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>169</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
@@ -3821,7 +3821,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -3923,7 +3923,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>32</v>
       </c>
@@ -3940,7 +3940,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
@@ -3957,7 +3957,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3966,7 +3966,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>171</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>11</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>17</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -4074,7 +4074,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -4091,7 +4091,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>35</v>
       </c>
@@ -4125,7 +4125,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>36</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>162</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>40</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>41</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>42</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>43</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4324,7 +4324,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>172</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
@@ -4364,7 +4364,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
@@ -4398,7 +4398,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>20</v>
       </c>
@@ -4415,7 +4415,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>24</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>27</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
@@ -4466,7 +4466,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>34</v>
       </c>
@@ -4483,7 +4483,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4492,7 +4492,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>173</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>44</v>
       </c>
@@ -4532,7 +4532,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>45</v>
       </c>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>47</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="F59" s="3"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
@@ -4610,26 +4610,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e522a4ea-6824-496f-8ffe-e074cc291ac0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="8080ce30-d5ea-40e8-a48f-b77958a33e4e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CBEA71EDBDE86541B7589EDD610CDCA6" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6135c02e9fba22fa14c95532ff73e585">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e522a4ea-6824-496f-8ffe-e074cc291ac0" xmlns:ns3="8080ce30-d5ea-40e8-a48f-b77958a33e4e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c9beda59bcc2e0dae0951e4601e1985" ns2:_="" ns3:_="">
     <xsd:import namespace="e522a4ea-6824-496f-8ffe-e074cc291ac0"/>
@@ -4820,32 +4800,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13FE4927-61BE-41A1-B367-1B1C5D848E2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e522a4ea-6824-496f-8ffe-e074cc291ac0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8080ce30-d5ea-40e8-a48f-b77958a33e4e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E8BB74B-0686-4136-81AA-6AA3532E32A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e522a4ea-6824-496f-8ffe-e074cc291ac0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="8080ce30-d5ea-40e8-a48f-b77958a33e4e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF3A5692-B908-4374-9724-9509DDA5EAF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4862,4 +4837,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E8BB74B-0686-4136-81AA-6AA3532E32A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13FE4927-61BE-41A1-B367-1B1C5D848E2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e522a4ea-6824-496f-8ffe-e074cc291ac0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8080ce30-d5ea-40e8-a48f-b77958a33e4e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>